--- a/assets/ChartBuilder/public/Data/Backups/Catalyst/CFR/cfr-brochure.xlsx
+++ b/assets/ChartBuilder/public/Data/Backups/Catalyst/CFR/cfr-brochure.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Marketing Team Files\Marketing Materials\AutoCharts&amp;Tables\Backup Files\Catalyst\CFR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1CF37D-55FB-483C-A478-1C876E3CA28F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E198F632-F0DC-4C40-A6B9-EEDE94955579}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="900" firstSheet="2" activeTab="9" xr2:uid="{BD465886-823B-4380-BF38-074C0DEF9895}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="900" xr2:uid="{BD465886-823B-4380-BF38-074C0DEF9895}"/>
   </bookViews>
   <sheets>
     <sheet name="LSTA vs. AGG" sheetId="2" r:id="rId1"/>
@@ -33181,8 +33181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8EBF571-A31F-48B1-9142-9C8753B6BAAD}">
   <dimension ref="A1:G147"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37153,12 +37153,12 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BB720CC-1B9D-44BB-920F-56CC563972F9}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A143" sqref="A143:C146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37303,12 +37303,12 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1844BDF2-7FD1-49D7-8A34-F7A507249225}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A143" sqref="A143:C146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40189,7 +40189,7 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E59DF16-CCF6-4BDE-93A7-08515DC886EE}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:C146"/>
   <sheetViews>
@@ -42253,12 +42253,12 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15B282F9-05D4-49E9-8138-93C2FBF7B6D3}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A143" sqref="A143:C146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
